--- a/test_docs/testsuite/info_page/good/list_eclated_not_same_sub_names_each_element_of_list.xlsx
+++ b/test_docs/testsuite/info_page/good/list_eclated_not_same_sub_names_each_element_of_list.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>Nom source</t>
   </si>
@@ -50,15 +50,12 @@
     <t>n1:1</t>
   </si>
   <si>
-    <t>n1;s1</t>
+    <t>n1:s1</t>
   </si>
   <si>
     <t>o1</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>n1:s2</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
   </si>
   <si>
     <t>n1:2</t>
-  </si>
-  <si>
-    <t>n1:s1</t>
   </si>
   <si>
     <t>n1:3</t>
@@ -316,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -362,9 +356,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -736,11 +727,9 @@
       <c r="F3" s="15"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>14</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="14" t="s">
@@ -752,7 +741,7 @@
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1"/>
       <c r="B5" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="14" t="s">
@@ -763,10 +752,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="14" t="s">
@@ -777,10 +766,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="14" t="s">
@@ -792,7 +781,7 @@
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1"/>
       <c r="B8" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="14" t="s">
@@ -843,11 +832,11 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1"/>
-      <c r="B14" s="17"/>
+      <c r="B14" s="16"/>
       <c r="C14" s="7"/>
-      <c r="D14" s="18"/>
+      <c r="D14" s="17"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="19"/>
+      <c r="F14" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
